--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H2">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J2">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N2">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O2">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P2">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q2">
-        <v>0.9417991846290001</v>
+        <v>2.148904462645667</v>
       </c>
       <c r="R2">
-        <v>5.650795107774001</v>
+        <v>12.893426775874</v>
       </c>
       <c r="S2">
-        <v>0.007124022454696792</v>
+        <v>3.508257124450331E-05</v>
       </c>
       <c r="T2">
-        <v>0.004798874183101091</v>
+        <v>2.339614824702296E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H3">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J3">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P3">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q3">
-        <v>5.410019340396</v>
+        <v>12.630534999676</v>
       </c>
       <c r="R3">
-        <v>48.690174063564</v>
+        <v>113.674814997084</v>
       </c>
       <c r="S3">
-        <v>0.04092284203506441</v>
+        <v>0.0002062035105259078</v>
       </c>
       <c r="T3">
-        <v>0.04134958263888986</v>
+        <v>0.0002062719919115067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H4">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J4">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N4">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O4">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P4">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q4">
-        <v>31.57375707804</v>
+        <v>172.2175562459815</v>
       </c>
       <c r="R4">
-        <v>284.16381370236</v>
+        <v>1549.958006213833</v>
       </c>
       <c r="S4">
-        <v>0.2388323945000075</v>
+        <v>0.002811588319340812</v>
       </c>
       <c r="T4">
-        <v>0.2413229224099382</v>
+        <v>0.002812522064180322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H5">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J5">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N5">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O5">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P5">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q5">
-        <v>0.9244330498065</v>
+        <v>2.558453690392</v>
       </c>
       <c r="R5">
-        <v>5.546598298839</v>
+        <v>15.350722142352</v>
       </c>
       <c r="S5">
-        <v>0.006992660337967505</v>
+        <v>4.176878750506827E-05</v>
       </c>
       <c r="T5">
-        <v>0.004710386215156228</v>
+        <v>2.785510610828128E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H6">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J6">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N6">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O6">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P6">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q6">
-        <v>0.473082137782</v>
+        <v>4492.180378034043</v>
       </c>
       <c r="R6">
-        <v>4.257739240038</v>
+        <v>40429.6234023064</v>
       </c>
       <c r="S6">
-        <v>0.003578520588550478</v>
+        <v>0.07333841075536238</v>
       </c>
       <c r="T6">
-        <v>0.003615837157019778</v>
+        <v>0.07336276686827892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.056073</v>
+        <v>7.134879666666667</v>
       </c>
       <c r="H7">
-        <v>9.168219000000001</v>
+        <v>21.404639</v>
       </c>
       <c r="I7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="J7">
-        <v>0.4559514113020136</v>
+        <v>0.07716103050836744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N7">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O7">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P7">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q7">
-        <v>20.953904421731</v>
+        <v>44.59057681416644</v>
       </c>
       <c r="R7">
-        <v>188.585139795579</v>
+        <v>401.3151913274979</v>
       </c>
       <c r="S7">
-        <v>0.1585009713857269</v>
+        <v>0.0007279765643887716</v>
       </c>
       <c r="T7">
-        <v>0.1601538086979084</v>
+        <v>0.0007282183296413891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H8">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J8">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N8">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O8">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P8">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q8">
-        <v>0.01676974741666667</v>
+        <v>24.41634460567666</v>
       </c>
       <c r="R8">
-        <v>0.1006184845</v>
+        <v>146.49806763406</v>
       </c>
       <c r="S8">
-        <v>0.0001268508819138429</v>
+        <v>0.0003986162084210994</v>
       </c>
       <c r="T8">
-        <v>8.544911616871859E-05</v>
+        <v>0.0002658323941221225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H9">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J9">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P9">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q9">
-        <v>0.096331213</v>
+        <v>143.51103107044</v>
       </c>
       <c r="R9">
-        <v>0.866980917</v>
+        <v>1291.59927963396</v>
       </c>
       <c r="S9">
-        <v>0.0007286752162251213</v>
+        <v>0.002342931507388757</v>
       </c>
       <c r="T9">
-        <v>0.00073627379164904</v>
+        <v>0.002343709608574233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H10">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J10">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N10">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O10">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P10">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q10">
-        <v>0.5622047033333334</v>
+        <v>1956.775312045474</v>
       </c>
       <c r="R10">
-        <v>5.05984233</v>
+        <v>17610.97780840927</v>
       </c>
       <c r="S10">
-        <v>0.004252667655749304</v>
+        <v>0.03194591034065904</v>
       </c>
       <c r="T10">
-        <v>0.004297014183825932</v>
+        <v>0.03195651976335398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H11">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J11">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N11">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O11">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P11">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q11">
-        <v>0.01646052470833333</v>
+        <v>29.06973671848</v>
       </c>
       <c r="R11">
-        <v>0.09876314825</v>
+        <v>174.41842031088</v>
       </c>
       <c r="S11">
-        <v>0.0001245118381414313</v>
+        <v>0.0004745865287233062</v>
       </c>
       <c r="T11">
-        <v>8.38734927278956E-05</v>
+        <v>0.0003164960944471872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H12">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J12">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N12">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O12">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P12">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q12">
-        <v>0.008423736277777778</v>
+        <v>51041.18216865729</v>
       </c>
       <c r="R12">
-        <v>0.07581362649999999</v>
+        <v>459370.6395179157</v>
       </c>
       <c r="S12">
-        <v>6.371940788945656E-05</v>
+        <v>0.8332878175658818</v>
       </c>
       <c r="T12">
-        <v>6.438386952618373E-05</v>
+        <v>0.8335645572984118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05441666666666667</v>
+        <v>81.06813666666666</v>
       </c>
       <c r="H13">
-        <v>0.16325</v>
+        <v>243.20441</v>
       </c>
       <c r="I13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829614</v>
       </c>
       <c r="J13">
-        <v>0.0081187052681719</v>
+        <v>0.8767212985829616</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N13">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O13">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P13">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q13">
-        <v>0.3731068048055555</v>
+        <v>506.6483450456244</v>
       </c>
       <c r="R13">
-        <v>3.35796124325</v>
+        <v>4559.83510541062</v>
       </c>
       <c r="S13">
-        <v>0.002822280268252745</v>
+        <v>0.008271436431887415</v>
       </c>
       <c r="T13">
-        <v>0.002851710814274129</v>
+        <v>0.008274183424052121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H14">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J14">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N14">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O14">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P14">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q14">
-        <v>1.107000252047</v>
+        <v>1.284359062723</v>
       </c>
       <c r="R14">
-        <v>6.642001512282001</v>
+        <v>7.706154376338</v>
       </c>
       <c r="S14">
-        <v>0.008373647781447655</v>
+        <v>2.096818127783509E-05</v>
       </c>
       <c r="T14">
-        <v>0.005640645072683331</v>
+        <v>1.398342995522438E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H15">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J15">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.310756</v>
       </c>
       <c r="O15">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P15">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q15">
-        <v>6.358991249028</v>
+        <v>7.549028994012</v>
       </c>
       <c r="R15">
-        <v>57.230921241252</v>
+        <v>67.941260946108</v>
       </c>
       <c r="S15">
-        <v>0.04810112090417808</v>
+        <v>0.0001232438910677234</v>
       </c>
       <c r="T15">
-        <v>0.04860271611014501</v>
+        <v>0.0001232848210810166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H16">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J16">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N16">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O16">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P16">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q16">
-        <v>37.11211223572001</v>
+        <v>102.9311367580357</v>
       </c>
       <c r="R16">
-        <v>334.00901012148</v>
+        <v>926.3802308223211</v>
       </c>
       <c r="S16">
-        <v>0.2807260031899966</v>
+        <v>0.001680432518691704</v>
       </c>
       <c r="T16">
-        <v>0.283653394792177</v>
+        <v>0.001680990600108418</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H17">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J17">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N17">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O17">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P17">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q17">
-        <v>1.0865879221795</v>
+        <v>1.529138796504</v>
       </c>
       <c r="R17">
-        <v>6.519527533077</v>
+        <v>9.174832779024001</v>
       </c>
       <c r="S17">
-        <v>0.008219243425718644</v>
+        <v>2.496440474837962E-05</v>
       </c>
       <c r="T17">
-        <v>0.005536635423474857</v>
+        <v>1.664846371496459E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H18">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J18">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N18">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O18">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P18">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q18">
-        <v>0.5560655119593333</v>
+        <v>2684.890222067449</v>
       </c>
       <c r="R18">
-        <v>5.004589607634</v>
+        <v>24164.01199860704</v>
       </c>
       <c r="S18">
-        <v>0.00420622916024425</v>
+        <v>0.04383296425536955</v>
       </c>
       <c r="T18">
-        <v>0.004250091430859102</v>
+        <v>0.04384752143783198</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.592139</v>
+        <v>4.264381</v>
       </c>
       <c r="H19">
-        <v>10.776417</v>
+        <v>12.793143</v>
       </c>
       <c r="I19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867112</v>
       </c>
       <c r="J19">
-        <v>0.5359298834298145</v>
+        <v>0.04611767090867113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N19">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O19">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P19">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q19">
-        <v>24.62943040809967</v>
+        <v>26.65093420338066</v>
       </c>
       <c r="R19">
-        <v>221.664873672897</v>
+        <v>239.858407830426</v>
       </c>
       <c r="S19">
-        <v>0.1863036389682293</v>
+        <v>0.0004350976575159368</v>
       </c>
       <c r="T19">
-        <v>0.1882464006004752</v>
+        <v>0.0004352421559795253</v>
       </c>
     </row>
   </sheetData>
